--- a/PM_29_12_2020/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-22.xlsx
+++ b/PM_29_12_2020/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office Work\Progress Monitoring\Kishoreganj\Kishoreganj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\PM_29_12_2020\Progress Monitoring Kishoregonj\Kishoreganj\Kishoreganj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-30" windowWidth="20115" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="-36" windowWidth="20112" windowHeight="8520" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Khal" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -655,6 +661,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,7 +683,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,58 +1002,58 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" customWidth="1"/>
+    <col min="20" max="20" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1092,7 +1107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1141,7 +1156,7 @@
         <v>1050000.0009999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1203,7 +1218,7 @@
         <v>35.000999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1301,7 +1316,7 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1330,7 +1345,7 @@
         <v>116000.001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>5000.0010000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1404,7 +1419,7 @@
         <v>25000.001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1456,7 +1471,7 @@
         <v>6.0010000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1508,7 +1523,7 @@
         <v>350.00099999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1551,7 +1566,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1576,7 +1591,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1601,7 +1616,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1626,7 +1641,7 @@
         <v>250.001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1651,7 +1666,7 @@
         <v>25.001000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1676,7 +1691,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1701,7 +1716,7 @@
         <v>165.001</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1726,7 +1741,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1751,7 +1766,7 @@
         <v>16.001000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1776,7 +1791,7 @@
         <v>290.00099999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1801,7 +1816,7 @@
         <v>380.00099999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1826,7 +1841,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1851,7 +1866,7 @@
         <v>180.001</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1876,7 +1891,7 @@
         <v>780.00099999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1901,7 +1916,7 @@
         <v>800.00099999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1926,7 +1941,7 @@
         <v>115.001</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1951,7 +1966,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R31">
         <v>5</v>
       </c>
@@ -1962,7 +1977,7 @@
         <v>75.001000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R32">
         <v>58</v>
       </c>
@@ -1973,7 +1988,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="33" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R33">
         <v>28</v>
       </c>
@@ -1984,7 +1999,7 @@
         <v>9000.0010000000002</v>
       </c>
     </row>
-    <row r="34" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R34">
         <v>27</v>
       </c>
@@ -1995,7 +2010,7 @@
         <v>13000.001</v>
       </c>
     </row>
-    <row r="35" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R35">
         <v>29</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>15000.001</v>
       </c>
     </row>
-    <row r="36" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R36">
         <v>56</v>
       </c>
@@ -2017,7 +2032,7 @@
         <v>100000.001</v>
       </c>
     </row>
-    <row r="37" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R37">
         <v>59</v>
       </c>
@@ -2028,7 +2043,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="38" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R38">
         <v>32</v>
       </c>
@@ -2039,7 +2054,7 @@
         <v>1150.001</v>
       </c>
     </row>
-    <row r="39" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R39">
         <v>33</v>
       </c>
@@ -2050,7 +2065,7 @@
         <v>1100.001</v>
       </c>
     </row>
-    <row r="40" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R40">
         <v>31</v>
       </c>
@@ -2061,7 +2076,7 @@
         <v>900.00099999999998</v>
       </c>
     </row>
-    <row r="41" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R41">
         <v>39</v>
       </c>
@@ -2072,7 +2087,7 @@
         <v>430.00099999999998</v>
       </c>
     </row>
-    <row r="42" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R42">
         <v>38</v>
       </c>
@@ -2083,7 +2098,7 @@
         <v>370.00099999999998</v>
       </c>
     </row>
-    <row r="43" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R43">
         <v>40</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>1300.001</v>
       </c>
     </row>
-    <row r="44" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R44">
         <v>37</v>
       </c>
@@ -2105,7 +2120,7 @@
         <v>210.001</v>
       </c>
     </row>
-    <row r="45" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R45">
         <v>35</v>
       </c>
@@ -2116,7 +2131,7 @@
         <v>4000.0010000000002</v>
       </c>
     </row>
-    <row r="46" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R46">
         <v>36</v>
       </c>
@@ -2127,7 +2142,7 @@
         <v>4400.0010000000002</v>
       </c>
     </row>
-    <row r="47" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R47">
         <v>25</v>
       </c>
@@ -2138,7 +2153,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="48" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R48">
         <v>20</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>150000.00099999999</v>
       </c>
     </row>
-    <row r="49" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R49">
         <v>21</v>
       </c>
@@ -2160,7 +2175,7 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="50" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R50">
         <v>26</v>
       </c>
@@ -2171,7 +2186,7 @@
         <v>480.00099999999998</v>
       </c>
     </row>
-    <row r="51" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R51">
         <v>22</v>
       </c>
@@ -2182,7 +2197,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="52" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R52">
         <v>8</v>
       </c>
@@ -2193,7 +2208,7 @@
         <v>29.001000000000001</v>
       </c>
     </row>
-    <row r="53" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R53">
         <v>9</v>
       </c>
@@ -2204,7 +2219,7 @@
         <v>5.0010000000000003</v>
       </c>
     </row>
-    <row r="54" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R54">
         <v>52</v>
       </c>
@@ -2215,7 +2230,7 @@
         <v>3200.0010000000002</v>
       </c>
     </row>
-    <row r="55" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R55">
         <v>53</v>
       </c>
@@ -2226,7 +2241,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="56" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R56">
         <v>51</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>95000.001000000004</v>
       </c>
     </row>
-    <row r="57" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R57">
         <v>24</v>
       </c>
@@ -2248,7 +2263,7 @@
         <v>300.00099999999998</v>
       </c>
     </row>
-    <row r="58" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R58">
         <v>47</v>
       </c>
@@ -2259,7 +2274,7 @@
         <v>400.00099999999998</v>
       </c>
     </row>
-    <row r="59" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R59">
         <v>30</v>
       </c>
@@ -2270,7 +2285,7 @@
         <v>85.001000000000005</v>
       </c>
     </row>
-    <row r="60" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R60">
         <v>48</v>
       </c>
@@ -2281,7 +2296,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="61" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R61">
         <v>54</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>313.75099999999998</v>
       </c>
     </row>
-    <row r="62" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R62">
         <v>49</v>
       </c>
@@ -2303,7 +2318,7 @@
         <v>64000.000999999997</v>
       </c>
     </row>
-    <row r="63" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R63">
         <v>50</v>
       </c>
@@ -2314,7 +2329,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="64" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R64">
         <v>61</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="65" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R65">
         <v>62</v>
       </c>
@@ -2352,69 +2367,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31">
+      <c r="F1" s="32">
         <v>19.5</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31">
+      <c r="G1" s="33"/>
+      <c r="H1" s="32">
         <v>22.3</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="29">
+      <c r="I1" s="33"/>
+      <c r="J1" s="30">
         <v>23.6</v>
       </c>
-      <c r="K1" s="29"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2439,7 +2454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2477,7 +2492,7 @@
         <v>3000.002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2515,7 +2530,7 @@
         <v>16800.48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -2553,7 +2568,7 @@
         <v>81490.280999999988</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2591,7 +2606,7 @@
         <v>107600.1345</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2629,7 +2644,7 @@
         <v>183511.60016999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2667,7 +2682,7 @@
         <v>4300.0107499999995</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -2705,7 +2720,7 @@
         <v>8621.4195466666661</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2743,7 +2758,7 @@
         <v>119080.00916</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>3870.0004300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2819,7 +2834,7 @@
         <v>875150.05834333331</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -2856,8 +2871,16 @@
         <f t="shared" si="2"/>
         <v>444162.80871666671</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L14" s="21">
+        <f>SUM(F14,H14,J14)</f>
+        <v>15676.15</v>
+      </c>
+      <c r="M14">
+        <f>L14*1.06</f>
+        <v>16616.719000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2895,7 +2918,7 @@
         <v>116496.12943999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -2933,7 +2956,7 @@
         <v>213191.01871666664</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -2971,7 +2994,7 @@
         <v>12217.344440000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -3009,7 +3032,7 @@
         <v>74170.049446666657</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3047,7 +3070,7 @@
         <v>23733.33926666667</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -3085,7 +3108,7 @@
         <v>26106.672600000002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3123,7 +3146,7 @@
         <v>449304.54766666662</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -3161,7 +3184,7 @@
         <v>42622.699453333335</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -3199,7 +3222,7 @@
         <v>25087.090126666666</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3237,7 +3260,7 @@
         <v>64000.000999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -3275,7 +3298,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -3313,7 +3336,7 @@
         <v>5600.0280000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -3351,7 +3374,7 @@
         <v>77303.94981333334</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -3389,7 +3412,7 @@
         <v>254101.54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -3427,7 +3450,7 @@
         <v>98560.616000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -3465,7 +3488,7 @@
         <v>249771.92021999997</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -3503,7 +3526,7 @@
         <v>28869.160383333332</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3541,7 +3564,7 @@
         <v>29670.258000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -3579,7 +3602,7 @@
         <v>7916.6667500000003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3617,14 +3640,14 @@
         <v>9889.3410000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="18">
         <f>SUM(F4:F34)</f>
         <v>42407.94</v>
@@ -3648,10 +3671,10 @@
         <v>3666199.1779400003</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G37">
         <f>SUMPRODUCT($E$4:$E$34,F4:F34)</f>
         <v>3666199.1779400003</v>
@@ -3661,7 +3684,7 @@
         <v>3666199.1779400003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G38">
         <f>G37/100000</f>
         <v>36.661991779400005</v>
@@ -3688,43 +3711,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="4"/>
       <c r="J2" t="s">
         <v>0</v>
@@ -3736,7 +3759,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3763,7 +3786,7 @@
         <v>1050000.0009999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3790,7 +3813,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3817,7 +3840,7 @@
         <v>35.000999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3844,7 +3867,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -3871,7 +3894,7 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -3898,7 +3921,7 @@
         <v>116000.001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3925,7 +3948,7 @@
         <v>5000.0010000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -3952,7 +3975,7 @@
         <v>25000.001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F11">
         <f>SUMPRODUCT($E$3:$E$10,F3:F10)</f>
         <v>23599241.562002003</v>
@@ -3967,7 +3990,7 @@
         <v>6.0010000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F12">
         <f>F11/100000</f>
         <v>235.99241562002004</v>
@@ -3982,7 +4005,7 @@
         <v>350.00099999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13">
         <v>4</v>
       </c>
@@ -3993,7 +4016,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14">
         <v>13</v>
       </c>
@@ -4004,7 +4027,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15">
         <v>41</v>
       </c>
@@ -4015,7 +4038,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16">
         <v>42</v>
       </c>
@@ -4026,7 +4049,7 @@
         <v>250.001</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17">
         <v>6</v>
       </c>
@@ -4037,7 +4060,7 @@
         <v>25.001000000000001</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18">
         <v>43</v>
       </c>
@@ -4048,7 +4071,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19">
         <v>10</v>
       </c>
@@ -4059,7 +4082,7 @@
         <v>165.001</v>
       </c>
     </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>14</v>
       </c>
@@ -4070,7 +4093,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>7</v>
       </c>
@@ -4081,7 +4104,7 @@
         <v>16.001000000000001</v>
       </c>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22">
         <v>18</v>
       </c>
@@ -4092,7 +4115,7 @@
         <v>290.00099999999998</v>
       </c>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23">
         <v>3</v>
       </c>
@@ -4103,7 +4126,7 @@
         <v>380.00099999999998</v>
       </c>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24">
         <v>34</v>
       </c>
@@ -4114,7 +4137,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25">
         <v>46</v>
       </c>
@@ -4125,7 +4148,7 @@
         <v>180.001</v>
       </c>
     </row>
-    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26">
         <v>45</v>
       </c>
@@ -4136,7 +4159,7 @@
         <v>780.00099999999998</v>
       </c>
     </row>
-    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27">
         <v>19</v>
       </c>
@@ -4147,7 +4170,7 @@
         <v>800.00099999999998</v>
       </c>
     </row>
-    <row r="28" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28">
         <v>12</v>
       </c>
@@ -4158,7 +4181,7 @@
         <v>115.001</v>
       </c>
     </row>
-    <row r="29" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29">
         <v>2</v>
       </c>
@@ -4169,7 +4192,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="30" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J30">
         <v>5</v>
       </c>
@@ -4180,7 +4203,7 @@
         <v>75.001000000000005</v>
       </c>
     </row>
-    <row r="31" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J31">
         <v>58</v>
       </c>
@@ -4191,7 +4214,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="32" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>28</v>
       </c>
@@ -4202,7 +4225,7 @@
         <v>9000.0010000000002</v>
       </c>
     </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33">
         <v>27</v>
       </c>
@@ -4213,7 +4236,7 @@
         <v>13000.001</v>
       </c>
     </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34">
         <v>29</v>
       </c>
@@ -4224,7 +4247,7 @@
         <v>15000.001</v>
       </c>
     </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35">
         <v>56</v>
       </c>
@@ -4235,7 +4258,7 @@
         <v>100000.001</v>
       </c>
     </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J36">
         <v>59</v>
       </c>
@@ -4246,7 +4269,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J37">
         <v>32</v>
       </c>
@@ -4257,7 +4280,7 @@
         <v>1150.001</v>
       </c>
     </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J38">
         <v>33</v>
       </c>
@@ -4268,7 +4291,7 @@
         <v>1100.001</v>
       </c>
     </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J39">
         <v>31</v>
       </c>
@@ -4279,7 +4302,7 @@
         <v>900.00099999999998</v>
       </c>
     </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J40">
         <v>39</v>
       </c>
@@ -4290,7 +4313,7 @@
         <v>430.00099999999998</v>
       </c>
     </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J41">
         <v>38</v>
       </c>
@@ -4301,7 +4324,7 @@
         <v>370.00099999999998</v>
       </c>
     </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J42">
         <v>40</v>
       </c>
@@ -4312,7 +4335,7 @@
         <v>1300.001</v>
       </c>
     </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J43">
         <v>37</v>
       </c>
@@ -4323,7 +4346,7 @@
         <v>210.001</v>
       </c>
     </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J44">
         <v>35</v>
       </c>
@@ -4334,7 +4357,7 @@
         <v>4000.0010000000002</v>
       </c>
     </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J45">
         <v>36</v>
       </c>
@@ -4345,7 +4368,7 @@
         <v>4400.0010000000002</v>
       </c>
     </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J46">
         <v>25</v>
       </c>
@@ -4356,7 +4379,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J47">
         <v>20</v>
       </c>
@@ -4367,7 +4390,7 @@
         <v>150000.00099999999</v>
       </c>
     </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J48">
         <v>21</v>
       </c>
@@ -4378,7 +4401,7 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J49">
         <v>26</v>
       </c>
@@ -4389,7 +4412,7 @@
         <v>480.00099999999998</v>
       </c>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J50">
         <v>22</v>
       </c>
@@ -4400,7 +4423,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J51">
         <v>8</v>
       </c>
@@ -4411,7 +4434,7 @@
         <v>29.001000000000001</v>
       </c>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J52">
         <v>9</v>
       </c>
@@ -4422,7 +4445,7 @@
         <v>5.0010000000000003</v>
       </c>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J53">
         <v>52</v>
       </c>
@@ -4433,7 +4456,7 @@
         <v>3200.0010000000002</v>
       </c>
     </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J54">
         <v>53</v>
       </c>
@@ -4444,7 +4467,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="55" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J55">
         <v>51</v>
       </c>
@@ -4455,7 +4478,7 @@
         <v>95000.001000000004</v>
       </c>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J56">
         <v>24</v>
       </c>
@@ -4466,7 +4489,7 @@
         <v>300.00099999999998</v>
       </c>
     </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J57">
         <v>47</v>
       </c>
@@ -4477,7 +4500,7 @@
         <v>400.00099999999998</v>
       </c>
     </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J58">
         <v>30</v>
       </c>
@@ -4488,7 +4511,7 @@
         <v>85.001000000000005</v>
       </c>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J59">
         <v>48</v>
       </c>
@@ -4499,7 +4522,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J60">
         <v>54</v>
       </c>
@@ -4510,7 +4533,7 @@
         <v>313.75099999999998</v>
       </c>
     </row>
-    <row r="61" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J61">
         <v>49</v>
       </c>
@@ -4521,7 +4544,7 @@
         <v>64000.000999999997</v>
       </c>
     </row>
-    <row r="62" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J62">
         <v>50</v>
       </c>
@@ -4532,7 +4555,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="63" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J63">
         <v>61</v>
       </c>
@@ -4543,7 +4566,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="64" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J64">
         <v>62</v>
       </c>
@@ -4571,51 +4594,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4644,7 +4668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -4673,7 +4697,7 @@
         <v>1050000.0009999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -4700,7 +4724,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4729,7 +4753,7 @@
         <v>35.000999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -4758,7 +4782,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4787,21 +4811,21 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="38">
         <v>150000.00099999999</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="39">
         <v>14.688000000000001</v>
       </c>
       <c r="J9">
@@ -4814,7 +4838,7 @@
         <v>116000.001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4841,7 +4865,7 @@
         <v>5000.0010000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -4868,7 +4892,7 @@
         <v>25000.001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -4895,7 +4919,7 @@
         <v>6.0010000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -4922,7 +4946,7 @@
         <v>350.00099999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -4949,7 +4973,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4976,7 +5000,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5005,7 +5029,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -5034,7 +5058,7 @@
         <v>250.001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -5063,7 +5087,7 @@
         <v>25.001000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -5092,7 +5116,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -5121,7 +5145,7 @@
         <v>165.001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -5150,7 +5174,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -5179,7 +5203,7 @@
         <v>16.001000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -5208,7 +5232,7 @@
         <v>290.00099999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -5237,7 +5261,7 @@
         <v>380.00099999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -5264,7 +5288,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -5283,7 +5307,7 @@
       <c r="F26" s="12">
         <v>8487</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="29">
         <f>7000*E26</f>
         <v>2590007</v>
       </c>
@@ -5297,7 +5321,7 @@
         <v>180.001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -5314,7 +5338,7 @@
       <c r="F27" s="12">
         <v>1746</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="29">
         <f>E26*F26</f>
         <v>3140198.4869999997</v>
       </c>
@@ -5328,7 +5352,7 @@
         <v>780.00099999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -5357,7 +5381,7 @@
         <v>800.00099999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -5386,7 +5410,7 @@
         <v>115.001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -5415,7 +5439,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -5442,7 +5466,7 @@
         <v>75.001000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -5469,7 +5493,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -5496,7 +5520,7 @@
         <v>9000.0010000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -5523,7 +5547,7 @@
         <v>13000.001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -5550,7 +5574,7 @@
         <v>15000.001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -5579,7 +5603,7 @@
         <v>100000.001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -5608,7 +5632,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -5637,7 +5661,7 @@
         <v>1150.001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -5666,7 +5690,7 @@
         <v>1100.001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F40" s="28">
         <f>SUMPRODUCT($E$3:$E$39,F3:F39)</f>
         <v>19521688.979662996</v>
@@ -5681,7 +5705,7 @@
         <v>900.00099999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F41" s="27">
         <f>F40/100000</f>
         <v>195.21688979662997</v>
@@ -5696,7 +5720,7 @@
         <v>430.00099999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J42">
         <v>38</v>
       </c>
@@ -5707,7 +5731,7 @@
         <v>370.00099999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J43">
         <v>40</v>
       </c>
@@ -5718,7 +5742,7 @@
         <v>1300.001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J44">
         <v>37</v>
       </c>
@@ -5729,7 +5753,7 @@
         <v>210.001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J45">
         <v>35</v>
       </c>
@@ -5740,7 +5764,7 @@
         <v>4000.0010000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J46">
         <v>36</v>
       </c>
@@ -5751,7 +5775,7 @@
         <v>4400.0010000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J47">
         <v>25</v>
       </c>
@@ -5762,7 +5786,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J48">
         <v>20</v>
       </c>
@@ -5773,7 +5797,7 @@
         <v>150000.00099999999</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J49">
         <v>21</v>
       </c>
@@ -5784,7 +5808,7 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J50">
         <v>26</v>
       </c>
@@ -5795,7 +5819,7 @@
         <v>480.00099999999998</v>
       </c>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J51">
         <v>22</v>
       </c>
@@ -5806,7 +5830,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J52">
         <v>8</v>
       </c>
@@ -5817,7 +5841,7 @@
         <v>29.001000000000001</v>
       </c>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J53">
         <v>9</v>
       </c>
@@ -5828,7 +5852,7 @@
         <v>5.0010000000000003</v>
       </c>
     </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J54">
         <v>52</v>
       </c>
@@ -5839,7 +5863,7 @@
         <v>3200.0010000000002</v>
       </c>
     </row>
-    <row r="55" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J55">
         <v>53</v>
       </c>
@@ -5850,7 +5874,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J56">
         <v>51</v>
       </c>
@@ -5861,7 +5885,7 @@
         <v>95000.001000000004</v>
       </c>
     </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J57">
         <v>24</v>
       </c>
@@ -5872,7 +5896,7 @@
         <v>300.00099999999998</v>
       </c>
     </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J58">
         <v>47</v>
       </c>
@@ -5883,7 +5907,7 @@
         <v>400.00099999999998</v>
       </c>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J59">
         <v>30</v>
       </c>
@@ -5894,7 +5918,7 @@
         <v>85.001000000000005</v>
       </c>
     </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J60">
         <v>48</v>
       </c>
@@ -5905,7 +5929,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="61" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J61">
         <v>54</v>
       </c>
@@ -5916,7 +5940,7 @@
         <v>313.75099999999998</v>
       </c>
     </row>
-    <row r="62" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J62">
         <v>49</v>
       </c>
@@ -5927,7 +5951,7 @@
         <v>64000.000999999997</v>
       </c>
     </row>
-    <row r="63" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J63">
         <v>50</v>
       </c>
@@ -5938,7 +5962,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="64" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J64">
         <v>61</v>
       </c>
@@ -5949,7 +5973,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="65" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J65">
         <v>62</v>
       </c>
@@ -5982,7 +6006,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5992,17 +6016,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6013,7 +6037,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>55</v>
       </c>
@@ -6024,7 +6048,7 @@
         <v>1050000.0009999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15</v>
       </c>
@@ -6035,7 +6059,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16</v>
       </c>
@@ -6046,7 +6070,7 @@
         <v>35.000999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>44</v>
       </c>
@@ -6057,7 +6081,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>57</v>
       </c>
@@ -6068,7 +6092,7 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60</v>
       </c>
@@ -6079,7 +6103,7 @@
         <v>116000.001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17</v>
       </c>
@@ -6090,7 +6114,7 @@
         <v>5000.0010000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>23</v>
       </c>
@@ -6101,7 +6125,7 @@
         <v>25000.001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -6112,7 +6136,7 @@
         <v>6.0010000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6123,7 +6147,7 @@
         <v>350.00099999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -6134,7 +6158,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -6145,7 +6169,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -6156,7 +6180,7 @@
         <v>200.001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>42</v>
       </c>
@@ -6167,7 +6191,7 @@
         <v>250.001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6178,7 +6202,7 @@
         <v>25.001000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>43</v>
       </c>
@@ -6189,7 +6213,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -6200,7 +6224,7 @@
         <v>165.001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6211,7 +6235,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -6222,7 +6246,7 @@
         <v>16.001000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -6233,7 +6257,7 @@
         <v>290.00099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6244,7 +6268,7 @@
         <v>380.00099999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>34</v>
       </c>
@@ -6255,7 +6279,7 @@
         <v>1500.001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>46</v>
       </c>
@@ -6266,7 +6290,7 @@
         <v>180.001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>45</v>
       </c>
@@ -6277,7 +6301,7 @@
         <v>780.00099999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>19</v>
       </c>
@@ -6288,7 +6312,7 @@
         <v>800.00099999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12</v>
       </c>
@@ -6299,7 +6323,7 @@
         <v>115.001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -6310,7 +6334,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -6321,7 +6345,7 @@
         <v>75.001000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>58</v>
       </c>
@@ -6332,7 +6356,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -6343,7 +6367,7 @@
         <v>9000.0010000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -6354,7 +6378,7 @@
         <v>13000.001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -6365,7 +6389,7 @@
         <v>15000.001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>56</v>
       </c>
@@ -6376,7 +6400,7 @@
         <v>100000.001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>59</v>
       </c>
@@ -6387,7 +6411,7 @@
         <v>115000.001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -6398,7 +6422,7 @@
         <v>1150.001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -6409,7 +6433,7 @@
         <v>1100.001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>31</v>
       </c>
@@ -6420,7 +6444,7 @@
         <v>900.00099999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -6431,7 +6455,7 @@
         <v>430.00099999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6442,7 +6466,7 @@
         <v>370.00099999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6453,7 +6477,7 @@
         <v>1300.001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>37</v>
       </c>
@@ -6464,7 +6488,7 @@
         <v>210.001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>35</v>
       </c>
@@ -6475,7 +6499,7 @@
         <v>4000.0010000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>36</v>
       </c>
@@ -6486,7 +6510,7 @@
         <v>4400.0010000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>25</v>
       </c>
@@ -6497,7 +6521,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20</v>
       </c>
@@ -6508,7 +6532,7 @@
         <v>150000.00099999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>21</v>
       </c>
@@ -6519,7 +6543,7 @@
         <v>2500.0010000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>26</v>
       </c>
@@ -6530,7 +6554,7 @@
         <v>480.00099999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>22</v>
       </c>
@@ -6541,7 +6565,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8</v>
       </c>
@@ -6552,7 +6576,7 @@
         <v>29.001000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9</v>
       </c>
@@ -6563,7 +6587,7 @@
         <v>5.0010000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -6574,7 +6598,7 @@
         <v>3200.0010000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -6585,7 +6609,7 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -6596,7 +6620,7 @@
         <v>95000.001000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24</v>
       </c>
@@ -6607,7 +6631,7 @@
         <v>300.00099999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>47</v>
       </c>
@@ -6618,7 +6642,7 @@
         <v>400.00099999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>30</v>
       </c>
@@ -6629,7 +6653,7 @@
         <v>85.001000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>48</v>
       </c>
@@ -6640,7 +6664,7 @@
         <v>160.001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>54</v>
       </c>
@@ -6651,7 +6675,7 @@
         <v>313.75099999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>49</v>
       </c>
@@ -6662,7 +6686,7 @@
         <v>64000.000999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>50</v>
       </c>
@@ -6673,7 +6697,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6684,7 +6708,7 @@
         <v>10000.001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
